--- a/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/Tables12-18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/Tables12-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2494F4-0D75-7248-AE3B-AD28CC527268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C052902-67D8-1747-9B8B-0A214DFC9C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="2660" windowWidth="28100" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27180" yWindow="5480" windowWidth="28100" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -857,10 +857,10 @@
         <v>124</v>
       </c>
       <c r="D2" s="1">
+        <v>3129100</v>
+      </c>
+      <c r="E2" s="1">
         <v>32392178</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3129100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1862,10 +1862,10 @@
         <v>124</v>
       </c>
       <c r="D73" s="1">
+        <v>1082300</v>
+      </c>
+      <c r="E73" s="1">
         <v>8050966</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1082300</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -2318,10 +2318,10 @@
         <v>124</v>
       </c>
       <c r="D105" s="1">
+        <v>2295900</v>
+      </c>
+      <c r="E105" s="1">
         <v>17690225</v>
-      </c>
-      <c r="E105" s="1">
-        <v>2295900</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -3253,10 +3253,10 @@
         <v>124</v>
       </c>
       <c r="D171" s="1">
+        <v>3009500</v>
+      </c>
+      <c r="E171" s="1">
         <v>123111509</v>
-      </c>
-      <c r="E171" s="1">
-        <v>3009500</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -3805,10 +3805,10 @@
         <v>124</v>
       </c>
       <c r="D210" s="1">
+        <v>734000</v>
+      </c>
+      <c r="E210" s="1">
         <v>3918557</v>
-      </c>
-      <c r="E210" s="1">
-        <v>734000</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
@@ -4400,10 +4400,10 @@
         <v>124</v>
       </c>
       <c r="D252" s="1">
+        <v>18662400</v>
+      </c>
+      <c r="E252" s="1">
         <v>593113985</v>
-      </c>
-      <c r="E252" s="1">
-        <v>18662400</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
@@ -5951,10 +5951,10 @@
         <v>124</v>
       </c>
       <c r="D362" s="1">
+        <v>16433100</v>
+      </c>
+      <c r="E362" s="1">
         <v>141056723</v>
-      </c>
-      <c r="E362" s="1">
-        <v>16433100</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
